--- a/Лаба 7/Тест-кейсы.xlsx
+++ b/Лаба 7/Тест-кейсы.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
